--- a/data/predictions/abortion/overall/republican.xlsx
+++ b/data/predictions/abortion/overall/republican.xlsx
@@ -862,7 +862,7 @@
         <v>0.3458512526688781</v>
       </c>
       <c r="D34">
-        <v>0.5186818707773483</v>
+        <v>0.5220592099448185</v>
       </c>
       <c r="F34">
         <v>0.1249709349631589</v>
@@ -876,7 +876,7 @@
         <v>0.378831825351099</v>
       </c>
       <c r="D35">
-        <v>0.5142036721073098</v>
+        <v>0.5119006947518707</v>
       </c>
       <c r="F35">
         <v>0.1324170947794053</v>
@@ -890,7 +890,7 @@
         <v>0.3742734719576162</v>
       </c>
       <c r="D36">
-        <v>0.5299976022548684</v>
+        <v>0.5334681444318042</v>
       </c>
       <c r="F36">
         <v>0.1381123111394984</v>
@@ -904,7 +904,7 @@
         <v>0.3520519181851723</v>
       </c>
       <c r="D37">
-        <v>0.5226675224670583</v>
+        <v>0.5306891714645307</v>
       </c>
       <c r="F37">
         <v>0.1364696701242299</v>
@@ -918,7 +918,7 @@
         <v>0.3322620610845483</v>
       </c>
       <c r="D38">
-        <v>0.527816897862864</v>
+        <v>0.5342304955968011</v>
       </c>
       <c r="F38">
         <v>0.1404359287258314</v>
@@ -932,7 +932,7 @@
         <v>0.3238045079941219</v>
       </c>
       <c r="D39">
-        <v>0.5196871161836338</v>
+        <v>0.5287346284349711</v>
       </c>
       <c r="F39">
         <v>0.1457036486613507</v>
